--- a/Datasets/Electricity price and demand/Datasets/Raw/USEP_2005-2023.xlsx
+++ b/Datasets/Electricity price and demand/Datasets/Raw/USEP_2005-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\常用工具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F33D36-8851-43EB-BCE9-D80757D54C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5AE57-19BA-4100-B19B-7B8488A742B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0947488F-F7B1-460B-86A1-A0F0E58BF962}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="5">
   <si>
     <t>INFORMATION</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>USEP</t>
+  </si>
+  <si>
+    <t>Demand (MW)</t>
   </si>
 </sst>
 </file>
@@ -424,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2E5822-8E41-43CD-A4C0-708C98DB46DE}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +445,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,8 +459,11 @@
       <c r="C2">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,8 +473,11 @@
       <c r="C3">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -475,8 +487,11 @@
       <c r="C4">
         <v>97.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -486,8 +501,11 @@
       <c r="C5">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -497,8 +515,11 @@
       <c r="C6">
         <v>113.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -508,8 +529,11 @@
       <c r="C7">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -519,8 +543,11 @@
       <c r="C8">
         <v>102.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -530,8 +557,11 @@
       <c r="C9">
         <v>103.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -541,8 +571,11 @@
       <c r="C10">
         <v>147.30000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -552,8 +585,11 @@
       <c r="C11">
         <v>141.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -563,8 +599,11 @@
       <c r="C12">
         <v>118.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -574,8 +613,11 @@
       <c r="C13">
         <v>117.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -585,8 +627,11 @@
       <c r="C14">
         <v>109.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -596,8 +641,11 @@
       <c r="C15">
         <v>106.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -607,8 +655,11 @@
       <c r="C16">
         <v>124.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -618,8 +669,11 @@
       <c r="C17">
         <v>127.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -629,8 +683,11 @@
       <c r="C18">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -640,8 +697,11 @@
       <c r="C19">
         <v>136.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -651,8 +711,11 @@
       <c r="C20">
         <v>153.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -662,8 +725,11 @@
       <c r="C21">
         <v>167.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -673,8 +739,11 @@
       <c r="C22">
         <v>130.19999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -684,8 +753,11 @@
       <c r="C23">
         <v>143.69999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -695,8 +767,11 @@
       <c r="C24">
         <v>117.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -706,8 +781,11 @@
       <c r="C25">
         <v>114.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -717,8 +795,11 @@
       <c r="C26">
         <v>123.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -728,8 +809,11 @@
       <c r="C27">
         <v>126.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -739,8 +823,11 @@
       <c r="C28">
         <v>124.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -750,8 +837,11 @@
       <c r="C29">
         <v>114.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -761,8 +851,11 @@
       <c r="C30">
         <v>109.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -772,8 +865,11 @@
       <c r="C31">
         <v>117.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -783,8 +879,11 @@
       <c r="C32">
         <v>124.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -794,8 +893,11 @@
       <c r="C33">
         <v>120.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -805,8 +907,11 @@
       <c r="C34">
         <v>126.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -816,8 +921,11 @@
       <c r="C35">
         <v>126.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -827,8 +935,11 @@
       <c r="C36">
         <v>139.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -838,8 +949,11 @@
       <c r="C37">
         <v>140.19999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -849,8 +963,11 @@
       <c r="C38">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -860,8 +977,11 @@
       <c r="C39">
         <v>149.30000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -871,8 +991,11 @@
       <c r="C40">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -882,8 +1005,11 @@
       <c r="C41">
         <v>173.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -893,8 +1019,11 @@
       <c r="C42">
         <v>202.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -904,8 +1033,11 @@
       <c r="C43">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -915,8 +1047,11 @@
       <c r="C44">
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -926,8 +1061,11 @@
       <c r="C45">
         <v>199.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -937,8 +1075,11 @@
       <c r="C46">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -948,8 +1089,11 @@
       <c r="C47">
         <v>171.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -959,8 +1103,11 @@
       <c r="C48">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -970,8 +1117,11 @@
       <c r="C49">
         <v>67.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1131,11 @@
       <c r="C50" s="2">
         <v>73.982547043010555</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1145,11 @@
       <c r="C51" s="2">
         <v>95.74505208333342</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1159,11 @@
       <c r="C52" s="2">
         <v>87.178447580645042</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1014,8 +1173,11 @@
       <c r="C53" s="2">
         <v>199.13804861111097</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1187,11 @@
       <c r="C54" s="2">
         <v>167.41436155913993</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1201,11 @@
       <c r="C55" s="2">
         <v>189.62475694444447</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1047,8 +1215,11 @@
       <c r="C56" s="2">
         <v>141.34899865591419</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1229,11 @@
       <c r="C57" s="2">
         <v>161.72427419354844</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1069,8 +1243,11 @@
       <c r="C58" s="2">
         <v>173.17649305555565</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1257,11 @@
       <c r="C59" s="2">
         <v>191.53763440860232</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1271,11 @@
       <c r="C60" s="2">
         <v>142.67703472222209</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1285,11 @@
       <c r="C61" s="2">
         <v>148.04791666666682</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1299,11 @@
       <c r="C62" s="2">
         <v>171.34726478494645</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1313,11 @@
       <c r="C63" s="2">
         <v>195.63709077380901</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1327,11 @@
       <c r="C64" s="2">
         <v>207.35126344086041</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1341,11 @@
       <c r="C65" s="2">
         <v>162.61108333333354</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1355,11 @@
       <c r="C66" s="2">
         <v>185.26907930107541</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1369,11 @@
       <c r="C67" s="2">
         <v>172.76127777777759</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1179,8 +1383,11 @@
       <c r="C68" s="2">
         <v>147.34098118279547</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1397,11 @@
       <c r="C69" s="2">
         <v>144.23303091397884</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1201,8 +1411,11 @@
       <c r="C70" s="2">
         <v>151.65815972222231</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>6285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1425,11 @@
       <c r="C71" s="2">
         <v>162.14096102150538</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>6345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1439,11 @@
       <c r="C72" s="2">
         <v>175.06361111111136</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1453,11 @@
       <c r="C73" s="2">
         <v>172.45469758064493</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1245,8 +1467,11 @@
       <c r="C74" s="2">
         <v>156.73543010752684</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1481,11 @@
       <c r="C75" s="2">
         <v>163.95862351190476</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1267,8 +1495,11 @@
       <c r="C76" s="2">
         <v>186.95440188172051</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1278,8 +1509,11 @@
       <c r="C77" s="2">
         <v>215.30731249999968</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1523,11 @@
       <c r="C78" s="2">
         <v>278.58637768817215</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1537,11 @@
       <c r="C79" s="2">
         <v>236.18430555555591</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1311,8 +1551,11 @@
       <c r="C80" s="2">
         <v>263.39565860215004</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1565,11 @@
       <c r="C81" s="2">
         <v>258.57751344086029</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1333,8 +1579,11 @@
       <c r="C82" s="2">
         <v>230.18580555555596</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1593,11 @@
       <c r="C83" s="2">
         <v>186.45323252688166</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1607,11 @@
       <c r="C84" s="2">
         <v>210.62213888888917</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -1366,8 +1621,11 @@
       <c r="C85" s="2">
         <v>187.22325268817224</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1377,8 +1635,11 @@
       <c r="C86" s="3">
         <v>210.48272849</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1649,11 @@
       <c r="C87" s="3">
         <v>228.34941810000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1399,8 +1663,11 @@
       <c r="C88" s="3">
         <v>243.34644488999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1677,11 @@
       <c r="C89" s="3">
         <v>245.62159027999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1691,11 @@
       <c r="C90" s="3">
         <v>266.14284945999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1432,8 +1705,11 @@
       <c r="C91" s="3">
         <v>247.80959028000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1719,11 @@
       <c r="C92" s="3">
         <v>210.96174059000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1454,8 +1733,11 @@
       <c r="C93" s="3">
         <v>212.2206922</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -1465,8 +1747,11 @@
       <c r="C94" s="3">
         <v>199.28432638999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -1476,8 +1761,11 @@
       <c r="C95" s="3">
         <v>194.44159274</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1775,11 @@
       <c r="C96" s="3">
         <v>218.67110417000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -1498,8 +1789,11 @@
       <c r="C97" s="3">
         <v>193.61287634000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -1509,8 +1803,11 @@
       <c r="C98" s="3">
         <v>191.61791667</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -1520,8 +1817,11 @@
       <c r="C99" s="3">
         <v>166.35494792</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -1531,8 +1831,11 @@
       <c r="C100" s="3">
         <v>166.19971102</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1845,11 @@
       <c r="C101" s="3">
         <v>178.97300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -1553,8 +1859,11 @@
       <c r="C102" s="3">
         <v>173.83283602</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1873,11 @@
       <c r="C103" s="3">
         <v>201.37291667</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -1575,8 +1887,11 @@
       <c r="C104" s="3">
         <v>172.73653898000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1901,11 @@
       <c r="C105" s="3">
         <v>199.62625</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -1597,8 +1915,11 @@
       <c r="C106" s="3">
         <v>163.29036805999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -1608,8 +1929,11 @@
       <c r="C107" s="3">
         <v>159.35202285</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1943,11 @@
       <c r="C108" s="3">
         <v>158.19326389</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -1630,8 +1957,11 @@
       <c r="C109" s="3">
         <v>146.93360887</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1971,11 @@
       <c r="C110" s="3">
         <v>138.69106855000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -1652,8 +1985,11 @@
       <c r="C111" s="3">
         <v>142.88314732000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -1663,8 +1999,11 @@
       <c r="C112" s="3">
         <v>136.02504031999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +2013,11 @@
       <c r="C113" s="3">
         <v>150.13173610999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -1685,8 +2027,11 @@
       <c r="C114" s="3">
         <v>132.84098118</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -1696,8 +2041,11 @@
       <c r="C115" s="3">
         <v>141.73315278000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +2055,11 @@
       <c r="C116" s="3">
         <v>155.73754704000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +2069,11 @@
       <c r="C117" s="3">
         <v>140.46034946</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -1729,8 +2083,11 @@
       <c r="C118" s="3">
         <v>138.03407639</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>6846</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +2097,11 @@
       <c r="C119" s="3">
         <v>136.71624327999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -1751,8 +2111,11 @@
       <c r="C120" s="3">
         <v>135.34299306</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -1762,8 +2125,11 @@
       <c r="C121" s="3">
         <v>92.592251344000005</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -1773,8 +2139,11 @@
       <c r="C122" s="2">
         <v>90.62432123655914</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -1784,8 +2153,11 @@
       <c r="C123" s="2">
         <v>93.290453869047695</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>6551</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +2167,11 @@
       <c r="C124" s="2">
         <v>81.722116935483797</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -1806,8 +2181,11 @@
       <c r="C125" s="2">
         <v>98.095048611111125</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +2195,11 @@
       <c r="C126" s="2">
         <v>103.18344086021526</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>6839</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +2209,11 @@
       <c r="C127" s="2">
         <v>107.83595833333321</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -1839,8 +2223,11 @@
       <c r="C128" s="2">
         <v>207.03110215053741</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -1850,8 +2237,11 @@
       <c r="C129" s="2">
         <v>102.42816532258064</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -1861,8 +2251,11 @@
       <c r="C130" s="2">
         <v>81.486930555555475</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +2265,11 @@
       <c r="C131" s="2">
         <v>66.865544354838633</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -1883,8 +2279,11 @@
       <c r="C132" s="2">
         <v>56.837854166666595</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -1894,8 +2293,11 @@
       <c r="C133" s="2">
         <v>60.659375000000018</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +2307,11 @@
       <c r="C134" s="2">
         <v>74.893588709677502</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2321,11 @@
       <c r="C135" s="2">
         <v>49.063850574712575</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2335,11 @@
       <c r="C136" s="2">
         <v>44.811404569892403</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2349,11 @@
       <c r="C137" s="2">
         <v>43.604937499999977</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2363,11 @@
       <c r="C138" s="2">
         <v>55.543387096774232</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2377,11 @@
       <c r="C139" s="2">
         <v>49.102430555555493</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -1971,8 +2391,11 @@
       <c r="C140" s="2">
         <v>62.935430107526948</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>7045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2405,11 @@
       <c r="C141" s="2">
         <v>67.1150940860216</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2419,11 @@
       <c r="C142" s="2">
         <v>77.716499999999968</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2433,11 @@
       <c r="C143" s="2">
         <v>71.886263440860276</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2447,11 @@
       <c r="C144" s="2">
         <v>72.990861111111144</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -2026,8 +2461,11 @@
       <c r="C145" s="2">
         <v>88.430584677419375</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -2037,8 +2475,11 @@
       <c r="C146" s="2">
         <v>84.564825268817117</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2489,11 @@
       <c r="C147" s="2">
         <v>84.749367559523947</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -2059,8 +2503,11 @@
       <c r="C148" s="2">
         <v>76.418985215053652</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -2070,8 +2517,11 @@
       <c r="C149" s="2">
         <v>82.679958333333389</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2531,11 @@
       <c r="C150" s="2">
         <v>82.499334677419512</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -2092,8 +2545,11 @@
       <c r="C151" s="2">
         <v>84.133020833333305</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -2103,8 +2559,11 @@
       <c r="C152" s="2">
         <v>79.20500672043012</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -2114,8 +2573,11 @@
       <c r="C153" s="2">
         <v>73.398931451612853</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2587,11 @@
       <c r="C154" s="2">
         <v>74.771895833333289</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2601,11 @@
       <c r="C155" s="2">
         <v>77.550255376344168</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2615,11 @@
       <c r="C156" s="2">
         <v>83.824472222222141</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -2158,8 +2629,11 @@
       <c r="C157" s="2">
         <v>87.443702956989171</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -2169,8 +2643,11 @@
       <c r="C158" s="2">
         <v>86.104522849462327</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -2180,8 +2657,11 @@
       <c r="C159" s="2">
         <v>98.573906250000093</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2671,11 @@
       <c r="C160" s="2">
         <v>104.3118951612902</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>7082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -2202,8 +2685,11 @@
       <c r="C161" s="2">
         <v>103.32861805555551</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -2213,8 +2699,11 @@
       <c r="C162" s="2">
         <v>112.56420026881742</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2713,11 @@
       <c r="C163" s="2">
         <v>110.7090902777779</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -2235,8 +2727,11 @@
       <c r="C164" s="2">
         <v>108.06049731182799</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2741,11 @@
       <c r="C165" s="2">
         <v>112.88515456989253</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -2257,8 +2755,11 @@
       <c r="C166" s="2">
         <v>117.32765972222234</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2769,11 @@
       <c r="C167" s="2">
         <v>154.0239045698923</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2783,11 @@
       <c r="C168" s="2">
         <v>114.21272916666672</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>6988</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -2290,8 +2797,11 @@
       <c r="C169" s="2">
         <v>100.44052419354823</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -2301,8 +2811,11 @@
       <c r="C170" s="4">
         <v>112.57115591397866</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -2312,8 +2825,11 @@
       <c r="C171" s="2">
         <v>115.16892857142832</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2839,11 @@
       <c r="C172" s="2">
         <v>113.53721102150551</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2853,11 @@
       <c r="C173" s="2">
         <v>99.622999999999877</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -2345,8 +2867,11 @@
       <c r="C174" s="2">
         <v>93.276290322580579</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -2356,8 +2881,11 @@
       <c r="C175" s="2">
         <v>89.842249999999851</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2895,11 @@
       <c r="C176" s="2">
         <v>112.71651209677418</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -2378,8 +2909,11 @@
       <c r="C177" s="2">
         <v>93.277909946236534</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -2389,8 +2923,11 @@
       <c r="C178" s="2">
         <v>95.967645833333506</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2937,11 @@
       <c r="C179" s="2">
         <v>94.392748655913906</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2951,11 @@
       <c r="C180" s="2">
         <v>88.794812499999921</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -2422,8 +2965,11 @@
       <c r="C181" s="2">
         <v>71.238575268817129</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2979,11 @@
       <c r="C182" s="5">
         <v>84.146364247311752</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -2444,8 +2993,11 @@
       <c r="C183" s="6">
         <v>88.636932471264402</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +3007,11 @@
       <c r="C184" s="6">
         <v>69.71781586021514</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -2466,8 +3021,11 @@
       <c r="C185" s="6">
         <v>55.23</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +3035,11 @@
       <c r="C186" s="6">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -2488,8 +3049,11 @@
       <c r="C187" s="6">
         <v>46.91</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -2499,8 +3063,11 @@
       <c r="C188" s="6">
         <v>60.05</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +3077,11 @@
       <c r="C189" s="2">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3</v>
       </c>
@@ -2521,8 +3091,11 @@
       <c r="C190" s="2">
         <v>73.94</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -2532,8 +3105,11 @@
       <c r="C191" s="2">
         <v>67.44</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +3119,11 @@
       <c r="C192" s="2">
         <v>92.27</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -2554,8 +3133,11 @@
       <c r="C193" s="2">
         <v>84.69</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -2565,8 +3147,11 @@
       <c r="C194" s="2">
         <v>77.81</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +3161,11 @@
       <c r="C195" s="2">
         <v>92.91</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +3175,11 @@
       <c r="C196" s="2">
         <v>103.35</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -2598,8 +3189,11 @@
       <c r="C197" s="2">
         <v>97.86</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +3203,11 @@
       <c r="C198" s="6">
         <v>100.31</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +3217,11 @@
       <c r="C199" s="6">
         <v>100.61</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -2631,8 +3231,11 @@
       <c r="C200" s="2">
         <v>167.04</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -2642,8 +3245,11 @@
       <c r="C201" s="2">
         <v>136.57</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +3259,11 @@
       <c r="C202" s="2">
         <v>155.61000000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +3273,11 @@
       <c r="C203" s="2">
         <v>491.24</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -2675,8 +3287,11 @@
       <c r="C204" s="2">
         <v>344.8</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -2686,8 +3301,11 @@
       <c r="C205" s="2">
         <v>475.06</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -2697,8 +3315,11 @@
       <c r="C206" s="2">
         <v>480.2</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +3329,11 @@
       <c r="C207" s="2">
         <v>261.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +3343,11 @@
       <c r="C208" s="2">
         <v>309.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +3357,11 @@
       <c r="C209" s="2">
         <v>365.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +3371,11 @@
       <c r="C210" s="6">
         <v>310.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +3385,11 @@
       <c r="C211" s="6">
         <v>215.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>7556</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -2764,7 +3400,7 @@
         <v>360.3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -2775,7 +3411,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3</v>
       </c>
@@ -2786,7 +3422,7 @@
         <v>230.6</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -2797,7 +3433,7 @@
         <v>253.2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -2808,7 +3444,7 @@
         <v>274.39999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -2819,7 +3455,7 @@
         <v>207.4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +3466,7 @@
         <v>220.97</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +3477,7 @@
         <v>221.98</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -2852,7 +3488,7 @@
         <v>339.26</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +3499,7 @@
         <v>323.95999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +3510,7 @@
         <v>492.09</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
